--- a/Data/EC/NIT-8904806655.xlsx
+++ b/Data/EC/NIT-8904806655.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91F3D678-C0B5-4243-9C95-D3A0E6D55DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C130C0F7-B0E6-4734-B807-ACC4B648CD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5FB8D7FE-E534-4F5E-A96E-6689B7A60A92}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{68463827-CFB4-4D9C-A76F-8F715630D9C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,121 +71,121 @@
     <t>ERACLIO GONZALEZ ZARATE</t>
   </si>
   <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>73182514</t>
+  </si>
+  <si>
+    <t>JOHN JAIRO MARTINEZ BERTHEL</t>
+  </si>
+  <si>
+    <t>45535345</t>
+  </si>
+  <si>
+    <t>MAYERLIS ESTHER PARRA BLANCO</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>9094284</t>
+  </si>
+  <si>
+    <t>BENJAMIN BATISTA DIAZ</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
     <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>73182514</t>
-  </si>
-  <si>
-    <t>JOHN JAIRO MARTINEZ BERTHEL</t>
-  </si>
-  <si>
-    <t>9094284</t>
-  </si>
-  <si>
-    <t>BENJAMIN BATISTA DIAZ</t>
-  </si>
-  <si>
-    <t>45535345</t>
-  </si>
-  <si>
-    <t>MAYERLIS ESTHER PARRA BLANCO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -284,7 +284,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -297,9 +299,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -499,23 +499,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -543,10 +543,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,7 +599,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64511226-A306-DF85-2654-0D5E882483B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BABB3AF4-B2E7-7F76-AB89-A8CE810956D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,7 +950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13B9E1D-7B79-47AE-BC90-B15B5D3A5A7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98B0903-2C6F-4385-92BD-C43D0965AB29}">
   <dimension ref="B2:J152"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1128,10 +1128,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>21874</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1142,19 +1142,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1165,19 +1165,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1194,13 +1194,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1211,19 +1211,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1234,10 +1234,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1246,7 +1246,7 @@
         <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1257,19 +1257,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>31249</v>
       </c>
       <c r="G22" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1286,13 +1286,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1303,10 +1303,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>19</v>
@@ -1315,7 +1315,7 @@
         <v>31249</v>
       </c>
       <c r="G24" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1326,19 +1326,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
         <v>31249</v>
       </c>
       <c r="G25" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1349,19 +1349,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
         <v>31249</v>
       </c>
       <c r="G26" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1378,13 +1378,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1395,19 +1395,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
         <v>31249</v>
       </c>
       <c r="G28" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1418,19 +1418,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
         <v>31249</v>
       </c>
       <c r="G29" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1441,19 +1441,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>31249</v>
       </c>
       <c r="G30" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1470,13 +1470,13 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G31" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1487,19 +1487,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
         <v>31249</v>
       </c>
       <c r="G32" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1510,19 +1510,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
         <v>31249</v>
       </c>
       <c r="G33" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1533,19 +1533,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F34" s="18">
         <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1562,13 +1562,13 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
         <v>31249</v>
       </c>
       <c r="G35" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1579,19 +1579,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F36" s="18">
         <v>31249</v>
       </c>
       <c r="G36" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1602,19 +1602,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F37" s="18">
         <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1625,19 +1625,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F38" s="18">
         <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1654,13 +1654,13 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1671,19 +1671,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
         <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1694,19 +1694,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F41" s="18">
         <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1717,19 +1717,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F42" s="18">
         <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1746,13 +1746,13 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F43" s="18">
         <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1763,19 +1763,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1786,19 +1786,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F45" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1809,19 +1809,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F46" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1838,13 +1838,13 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F47" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1855,19 +1855,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F48" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>83500</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1878,16 +1878,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F49" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1901,13 +1901,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -1924,13 +1924,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F51" s="18">
         <v>31249</v>
@@ -1947,13 +1947,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -1970,13 +1970,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -1993,13 +1993,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2016,13 +2016,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2039,13 +2039,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2062,13 +2062,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2085,13 +2085,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2108,13 +2108,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2131,13 +2131,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2154,13 +2154,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2177,13 +2177,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2200,13 +2200,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
@@ -2223,13 +2223,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2246,13 +2246,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2269,13 +2269,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2292,13 +2292,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2315,10 +2315,10 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>30</v>
@@ -2338,13 +2338,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2361,13 +2361,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2384,13 +2384,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2407,13 +2407,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2430,13 +2430,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2453,13 +2453,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2476,13 +2476,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2499,13 +2499,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2522,13 +2522,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2545,13 +2545,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2568,13 +2568,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2591,13 +2591,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2614,16 +2614,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F81" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2637,16 +2637,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F82" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2660,13 +2660,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2683,13 +2683,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2706,13 +2706,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2729,13 +2729,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -2752,13 +2752,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2775,13 +2775,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -2798,13 +2798,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -2821,13 +2821,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -2844,13 +2844,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -2867,13 +2867,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -2890,13 +2890,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -2913,13 +2913,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -2936,13 +2936,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
@@ -2959,13 +2959,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
@@ -2982,13 +2982,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F97" s="18">
         <v>31249</v>
@@ -3005,13 +3005,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F98" s="18">
         <v>31249</v>
@@ -3028,13 +3028,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F99" s="18">
         <v>31249</v>
@@ -3051,13 +3051,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F100" s="18">
         <v>31249</v>
@@ -3074,13 +3074,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F101" s="18">
         <v>31249</v>
@@ -3097,13 +3097,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F102" s="18">
         <v>31249</v>
@@ -3120,13 +3120,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F103" s="18">
         <v>31249</v>
@@ -3143,13 +3143,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F104" s="18">
         <v>31249</v>
@@ -3166,13 +3166,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F105" s="18">
         <v>31249</v>
@@ -3189,13 +3189,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F106" s="18">
         <v>31249</v>
@@ -3212,13 +3212,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F107" s="18">
         <v>31249</v>
@@ -3235,13 +3235,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F108" s="18">
         <v>31249</v>
@@ -3258,13 +3258,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F109" s="18">
         <v>31249</v>
@@ -3281,13 +3281,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F110" s="18">
         <v>31249</v>
@@ -3304,13 +3304,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F111" s="18">
         <v>31249</v>
@@ -3327,10 +3327,10 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E112" s="16" t="s">
         <v>41</v>
@@ -3350,13 +3350,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F113" s="18">
         <v>31249</v>
@@ -3373,16 +3373,16 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F114" s="18">
-        <v>21874</v>
+        <v>31249</v>
       </c>
       <c r="G114" s="18">
         <v>781242</v>
@@ -3396,13 +3396,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F115" s="18">
         <v>31249</v>
@@ -3419,13 +3419,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F116" s="18">
         <v>31249</v>
@@ -3442,13 +3442,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F117" s="18">
         <v>31249</v>
@@ -3465,13 +3465,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F118" s="18">
         <v>31249</v>
@@ -3488,13 +3488,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F119" s="18">
         <v>31249</v>
@@ -3511,13 +3511,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F120" s="18">
         <v>31249</v>
@@ -3534,13 +3534,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F121" s="18">
         <v>31249</v>
@@ -3557,13 +3557,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F122" s="18">
         <v>31249</v>
@@ -3580,13 +3580,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F123" s="18">
         <v>31249</v>
@@ -3603,13 +3603,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F124" s="18">
         <v>31249</v>
@@ -3626,13 +3626,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F125" s="18">
         <v>31249</v>
@@ -3649,13 +3649,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F126" s="18">
         <v>31249</v>
@@ -3672,13 +3672,13 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F127" s="18">
         <v>31249</v>
@@ -3695,13 +3695,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F128" s="18">
         <v>31249</v>
@@ -3718,13 +3718,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F129" s="18">
         <v>31249</v>
@@ -3741,13 +3741,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F130" s="18">
         <v>31249</v>
@@ -3764,13 +3764,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F131" s="18">
         <v>31249</v>
@@ -3787,13 +3787,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F132" s="18">
         <v>31249</v>
@@ -3810,13 +3810,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F133" s="18">
         <v>31249</v>
@@ -3833,13 +3833,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F134" s="18">
         <v>31249</v>
@@ -3856,13 +3856,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F135" s="18">
         <v>31249</v>
@@ -3879,13 +3879,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F136" s="18">
         <v>31249</v>
@@ -3902,13 +3902,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F137" s="18">
         <v>31249</v>
@@ -3925,13 +3925,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F138" s="18">
         <v>31249</v>
@@ -3948,13 +3948,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F139" s="18">
         <v>31249</v>
@@ -3971,13 +3971,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="F140" s="18">
         <v>31249</v>
@@ -3994,13 +3994,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="D141" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
@@ -4017,13 +4017,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E142" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
@@ -4040,16 +4040,16 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D143" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E143" s="16" t="s">
-        <v>40</v>
-      </c>
       <c r="F143" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G143" s="18">
         <v>781242</v>
@@ -4063,16 +4063,16 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D144" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E144" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F144" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G144" s="18">
         <v>781242</v>
@@ -4086,16 +4086,16 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D145" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E145" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="F145" s="18">
-        <v>31249</v>
+        <v>21874</v>
       </c>
       <c r="G145" s="18">
         <v>781242</v>
@@ -4109,16 +4109,16 @@
         <v>8</v>
       </c>
       <c r="C146" s="22" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D146" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E146" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E146" s="22" t="s">
-        <v>43</v>
-      </c>
       <c r="F146" s="24">
-        <v>29509</v>
+        <v>21874</v>
       </c>
       <c r="G146" s="24">
         <v>781242</v>
